--- a/medicine/Psychotrope/Brasserie_Valduc-Thor/Brasserie_Valduc-Thor.xlsx
+++ b/medicine/Psychotrope/Brasserie_Valduc-Thor/Brasserie_Valduc-Thor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Valduc-Thor est une brasserie fondée en 2017, située à Thorembais-Saint-Trond dans la commune de Perwez en Belgique. On y brasse principalement la marque de bière « Valduc » ainsi que des bières à façon.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La naissance de cette brasserie est le fruit de la collaboration de deux amis rencontrés lors de leur master en génie brassicole sur les bancs de la Faculté, dans les laboratoires de brasserie de l'Université catholique de Louvain[1]. Antoine Limbourg, bio-ingénieur de formation, développe la Rio en 2014[2] avant de rencontrer Peter Gerard, ingénieur brasseur. En 2016, ils unissent leurs compétences pour créer leur propre brasserie[3],[4]. Ils construisent une unité de production flambant neuve à Thorembais-Saint-Trond, à quelques encablures d'une ancienne brasserie disparue, la brasserie Meurice-Hanquet. Le premier brassin a lieu le 6 avril 2017.
-La brasserie a reçu deux médailles d'or aux Best Local Beers 2018 pour deux de ses bières[2]. Ce sont la petite sœur dans la catégorie bière blanche et la Rio dans la catégorie Ambrée[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La naissance de cette brasserie est le fruit de la collaboration de deux amis rencontrés lors de leur master en génie brassicole sur les bancs de la Faculté, dans les laboratoires de brasserie de l'Université catholique de Louvain. Antoine Limbourg, bio-ingénieur de formation, développe la Rio en 2014 avant de rencontrer Peter Gerard, ingénieur brasseur. En 2016, ils unissent leurs compétences pour créer leur propre brasserie,. Ils construisent une unité de production flambant neuve à Thorembais-Saint-Trond, à quelques encablures d'une ancienne brasserie disparue, la brasserie Meurice-Hanquet. Le premier brassin a lieu le 6 avril 2017.
+La brasserie a reçu deux médailles d'or aux Best Local Beers 2018 pour deux de ses bières. Ce sont la petite sœur dans la catégorie bière blanche et la Rio dans la catégorie Ambrée
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Modèle économique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie Valduc-Thor est une brasserie coopérative. Lorsque l'entreprise a besoin de lever des fonds pour des investissements (essentiellement liés à la durabilité : panneaux photovoltaïques[6], réduction de la consommation d'eau et d'électricité...), elle fait appel à des coopérateurs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie Valduc-Thor est une brasserie coopérative. Lorsque l'entreprise a besoin de lever des fonds pour des investissements (essentiellement liés à la durabilité : panneaux photovoltaïques, réduction de la consommation d'eau et d'électricité...), elle fait appel à des coopérateurs.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>5 bières principales sont brassées par la brasserie Valduc-Thor :
 la Fée verte, une ISA titrant 4,7 % de volume d'alcool.
